--- a/yti-codelist-robot/resources/test_files/Codes_with_invalid_order_values.xlsx
+++ b/yti-codelist-robot/resources/test_files/Codes_with_invalid_order_values.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA87CF6-3B07-4FBC-A12C-256DB0DCBC66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2291194B-56B0-4B4A-A642-0259BF664DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CODEVALUE</t>
   </si>
@@ -79,55 +82,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>testikoodi12</t>
-  </si>
-  <si>
-    <t>Testikoodi 12</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>testikoodi13</t>
-  </si>
-  <si>
-    <t>Testikoodi 13</t>
-  </si>
-  <si>
-    <t>testikoodi14</t>
-  </si>
-  <si>
-    <t>Testikoodi 14</t>
-  </si>
-  <si>
-    <t>testikoodi15</t>
-  </si>
-  <si>
-    <t>Testikoodi 15</t>
-  </si>
-  <si>
-    <t>testikoodi16</t>
-  </si>
-  <si>
-    <t>Testikoodi 16</t>
-  </si>
-  <si>
-    <t>testikoodi17</t>
-  </si>
-  <si>
-    <t>Testikoodi 17</t>
-  </si>
-  <si>
-    <t>testikoodi18</t>
-  </si>
-  <si>
-    <t>Testikoodi 18</t>
-  </si>
-  <si>
-    <t>testikoodi19</t>
-  </si>
-  <si>
-    <t>Testikoodi 19</t>
   </si>
 </sst>
 </file>
@@ -500,10 +455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -570,8 +525,8 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="4">
         <v>43142</v>
@@ -583,248 +538,8 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43141</v>
-      </c>
-      <c r="K3" s="4">
-        <v>43360</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>43140</v>
-      </c>
-      <c r="K4" s="4">
-        <v>43359</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43141</v>
-      </c>
-      <c r="K5" s="4">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>43142</v>
-      </c>
-      <c r="K6" s="4">
-        <v>43361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4">
-        <v>43143</v>
-      </c>
-      <c r="K7" s="4">
-        <v>43362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="4">
-        <v>43144</v>
-      </c>
-      <c r="K8" s="4">
-        <v>43363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4">
-        <v>43145</v>
-      </c>
-      <c r="K9" s="4">
-        <v>43364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4">
-        <v>43146</v>
-      </c>
-      <c r="K10" s="4">
-        <v>43365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
